--- a/RFM 분석_myattempt.xlsx
+++ b/RFM 분석_myattempt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hogun\Desktop\SQL 공부\부스트코스 프로젝트\RFM 분석\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{713CE354-6F65-423A-9B1F-7AE87AFFA250}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B34A477-BED3-4767-AF62-03E7EB296D1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{0F29835D-083C-4F5E-8F26-93C913C2BD03}"/>
   </bookViews>
@@ -3496,8 +3496,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BD3AC3A-4C55-4831-A3CC-A49C978B363E}">
   <dimension ref="B2:Q50"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="R23" sqref="R23"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="T8" sqref="T8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
